--- a/Symphony/2021/Others/Document/Expence/MC Expance January 2021.xlsx
+++ b/Symphony/2021/Others/Document/Expence/MC Expance January 2021.xlsx
@@ -377,9 +377,6 @@
     <t>Office Rent</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retailer 1%  less </t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Sales Discount</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1077,45 @@
     <xf numFmtId="2" fontId="7" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,39 +1138,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1473,173 +1473,173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="47"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="S4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>1000</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>1300</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="10">
         <v>500</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10">
         <v>1000</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10">
         <v>600</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="10">
         <v>500</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10">
         <v>800</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="10">
         <v>1000</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10">
         <v>1800</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10">
         <v>500</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="10">
         <v>1000</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10">
         <v>800</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="10">
         <v>500</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="10">
         <v>1300</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10">
         <v>1000</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10">
         <v>1300</v>
@@ -2270,7 +2270,7 @@
         <v>210</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="10">
         <v>500</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="4"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="10">
         <v>1800</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="10">
         <v>500</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="10">
         <v>800</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="10">
         <v>1000</v>
@@ -2508,7 +2508,7 @@
         <v>110</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
@@ -2569,7 +2569,9 @@
       <c r="P29" s="11">
         <v>10000</v>
       </c>
-      <c r="Q29" s="11"/>
+      <c r="Q29" s="11">
+        <v>240</v>
+      </c>
       <c r="R29" s="15">
         <f>3080+240</f>
         <v>3320</v>
@@ -2579,7 +2581,7 @@
       </c>
       <c r="T29" s="9">
         <f>SUM(B29:S29)</f>
-        <v>29924</v>
+        <v>30164</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2759,7 +2761,7 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="26">
         <f>SUM(B6:B36)</f>
@@ -2823,7 +2825,7 @@
       </c>
       <c r="Q37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R37" s="29">
         <f>SUM(R6:R36)</f>
@@ -2835,11 +2837,17 @@
       </c>
       <c r="T37" s="30">
         <f>SUM(T6:T36)</f>
-        <v>147204</v>
+        <v>147444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -2856,12 +2864,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
